--- a/tests/testthat/xlsx/ADAM_METADATA.xlsx
+++ b/tests/testthat/xlsx/ADAM_METADATA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>OID</t>
   </si>
@@ -322,9 +322,6 @@
     <t xml:space="preserve">ADAE</t>
   </si>
   <si>
-    <t xml:space="preserve">ADQSADAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADSL</t>
   </si>
   <si>
@@ -667,22 +664,76 @@
     <t xml:space="preserve">1st Occurrence of CQ01 01 Flag</t>
   </si>
   <si>
+    <t xml:space="preserve">SUBJID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject Identifier for the Study</t>
+  </si>
+  <si>
     <t xml:space="preserve">SITEGR1</t>
   </si>
   <si>
     <t xml:space="preserve">Pooled Site Group 1</t>
   </si>
   <si>
-    <t xml:space="preserve">TRTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRTPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment (N)</t>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of Planned Arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Treatment for Period 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Treatment for Period 01 (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Treatment for Period 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRT01AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Treatment for Period 01 (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRTDURD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Treatment Duration (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Daily Dose (as planned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMDOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative Dose (as planned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHNIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethnicity</t>
   </si>
   <si>
     <t xml:space="preserve">ITTFL</t>
@@ -697,223 +748,22 @@
     <t xml:space="preserve">Efficacy Population Flag</t>
   </si>
   <si>
+    <t xml:space="preserve">COMP8FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completers of Week 8 Population Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP16FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completers of Week 16 Population Flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMP24FL</t>
   </si>
   <si>
     <t xml:space="preserve">Completers of Week 24 Population Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVISIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVISITN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Visit (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISITNUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Relative Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAMCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change from Baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Change from Baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABLFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline Record Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANL01FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Record Flag 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derivation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Valid Relative Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWTARGET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWTDIFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Diff from Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Beginning Timepoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Ending Timepoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Window Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSSEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBJID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject Identifier for the Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of Planned Arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment for Period 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01PN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Treatment for Period 01 (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Treatment for Period 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRT01AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Treatment for Period 01 (N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRTDURD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Treatment Duration (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Daily Dose (as planned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUMDOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Dose (as planned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHNIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP8FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completers of Week 8 Population Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP16FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completers of Week 16 Population Flag</t>
   </si>
   <si>
     <t xml:space="preserve">DISCONFL</t>
@@ -1911,12 +1761,8 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -2127,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="E2" s="56" t="n">
         <v>12</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -2157,16 +2003,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="56" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2187,16 +2033,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="56" t="n">
         <v>11</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -2217,16 +2063,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="56" t="n">
         <v>20</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -2247,16 +2093,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="E6" s="56" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -2277,16 +2123,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="56" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2307,16 +2153,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="56" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2337,16 +2183,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2367,16 +2213,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="56" t="n">
         <v>32</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -2397,16 +2243,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -2427,16 +2273,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -2457,16 +2303,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -2487,16 +2333,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="E14" s="56" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -2517,16 +2363,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="56" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -2547,16 +2393,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="56" t="n">
         <v>10</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2577,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2607,16 +2453,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="56" t="n">
         <v>5</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -2637,16 +2483,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="56" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -2667,16 +2513,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="56" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -2697,16 +2543,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="56" t="n">
         <v>3</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -2727,16 +2573,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="56" t="n">
         <v>3</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -2757,16 +2603,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="56" t="n">
         <v>46</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -2787,16 +2633,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="56" t="n">
         <v>46</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -2817,16 +2663,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="56" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="19"/>
@@ -2847,16 +2693,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="56" t="n">
         <v>46</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -2877,16 +2723,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="56" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -2907,16 +2753,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="56" t="n">
         <v>8</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -2937,16 +2783,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="56" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -2967,16 +2813,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="56" t="n">
         <v>9</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -2997,16 +2843,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="56" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -3027,16 +2873,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="56" t="n">
         <v>67</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -3057,16 +2903,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="56" t="n">
         <v>67</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -3087,16 +2933,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="56" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -3117,16 +2963,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="56" t="n">
         <v>8</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -3147,16 +2993,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -3177,16 +3023,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -3207,16 +3053,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -3237,16 +3083,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -3267,16 +3113,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -3297,16 +3143,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -3327,16 +3173,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E42" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -3357,16 +3203,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -3387,16 +3233,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="56" t="n">
         <v>8</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -3417,16 +3263,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="56" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -3447,16 +3293,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="56" t="n">
         <v>26</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -3477,16 +3323,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="56" t="n">
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -3507,16 +3353,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
@@ -3537,16 +3383,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
@@ -3567,16 +3413,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -3597,16 +3443,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E51" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
@@ -3627,16 +3473,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -3657,16 +3503,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -3687,16 +3533,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -3717,16 +3563,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" s="56" t="n">
         <v>19</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -3747,16 +3593,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E56" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
@@ -3777,16 +3623,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="E57" s="56" t="n">
         <v>12</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
@@ -3807,16 +3653,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" s="56" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -3837,16 +3683,16 @@
         <v>3</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="56" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -3867,16 +3713,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E60" s="56" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -3897,16 +3743,16 @@
         <v>5</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E61" s="56" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
@@ -3927,16 +3773,16 @@
         <v>6</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E62" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -3957,16 +3803,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="56" t="n">
         <v>20</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -3987,16 +3833,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" s="56" t="n">
         <v>2</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -4017,16 +3863,16 @@
         <v>9</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E65" s="56" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
@@ -4047,16 +3893,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E66" s="56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -4077,16 +3923,16 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E67" s="56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
@@ -4107,16 +3953,16 @@
         <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E68" s="56" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -4137,16 +3983,16 @@
         <v>13</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" s="56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
@@ -4167,16 +4013,16 @@
         <v>14</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E70" s="56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -4197,16 +4043,16 @@
         <v>15</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E71" s="56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
@@ -4227,16 +4073,16 @@
         <v>16</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E72" s="56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
@@ -4257,16 +4103,16 @@
         <v>17</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73" s="56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
@@ -4287,16 +4133,16 @@
         <v>18</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E74" s="56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
@@ -4317,16 +4163,16 @@
         <v>19</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E75" s="56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
@@ -4347,16 +4193,16 @@
         <v>20</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" s="56" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -4377,16 +4223,16 @@
         <v>21</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -4407,16 +4253,16 @@
         <v>22</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E78" s="56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -4437,16 +4283,16 @@
         <v>23</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="56" t="n">
+        <v>22</v>
+      </c>
+      <c r="F79" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
@@ -4467,16 +4313,16 @@
         <v>24</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80" s="56" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
@@ -4497,16 +4343,16 @@
         <v>25</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E81" s="56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
@@ -4527,16 +4373,16 @@
         <v>26</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E82" s="56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
@@ -4557,16 +4403,16 @@
         <v>27</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E83" s="56" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
@@ -4587,16 +4433,16 @@
         <v>28</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E84" s="56" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
@@ -4617,16 +4463,16 @@
         <v>29</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E85" s="56" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
@@ -4647,16 +4493,16 @@
         <v>30</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E86" s="56" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
@@ -4677,16 +4523,16 @@
         <v>31</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E87" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
@@ -4707,16 +4553,16 @@
         <v>32</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E88" s="56" t="n">
         <v>1</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
@@ -4737,16 +4583,16 @@
         <v>33</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E89" s="56" t="n">
         <v>4</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -4767,16 +4613,16 @@
         <v>34</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E90" s="56" t="n">
         <v>6</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
@@ -4797,16 +4643,16 @@
         <v>35</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" s="56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
@@ -4827,16 +4673,16 @@
         <v>36</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
@@ -4857,16 +4703,16 @@
         <v>37</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
@@ -4887,16 +4733,16 @@
         <v>38</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E94" s="56" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
@@ -4917,16 +4763,16 @@
         <v>39</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E95" s="56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
@@ -4947,16 +4793,16 @@
         <v>40</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E96" s="56" t="n">
         <v>4</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
@@ -4971,22 +4817,22 @@
     </row>
     <row r="97">
       <c r="A97" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="56" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E97" s="56" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
@@ -5001,22 +4847,22 @@
     </row>
     <row r="98">
       <c r="A98" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="56" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E98" s="56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
@@ -5031,22 +4877,22 @@
     </row>
     <row r="99">
       <c r="A99" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="56" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E99" s="56" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -5061,22 +4907,22 @@
     </row>
     <row r="100">
       <c r="A100" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="56" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E100" s="56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -5091,22 +4937,22 @@
     </row>
     <row r="101">
       <c r="A101" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="56" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E101" s="56" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
@@ -5121,22 +4967,22 @@
     </row>
     <row r="102">
       <c r="A102" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="56" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E102" s="56" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
@@ -5151,22 +4997,22 @@
     </row>
     <row r="103">
       <c r="A103" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="56" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E103" s="56" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
@@ -5181,22 +5027,22 @@
     </row>
     <row r="104">
       <c r="A104" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="56" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E104" s="56" t="n">
         <v>2</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
@@ -5208,806 +5054,6 @@
       <c r="N104" s="16"/>
       <c r="O104" s="16"/>
       <c r="P104" s="16"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="56" t="n">
-        <v>9</v>
-      </c>
-      <c r="C105" t="s">
-        <v>275</v>
-      </c>
-      <c r="D105" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="F105" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="56" t="n">
-        <v>11</v>
-      </c>
-      <c r="C107" t="s">
-        <v>123</v>
-      </c>
-      <c r="D107" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="56" t="n">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>126</v>
-      </c>
-      <c r="D108" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="56" t="n">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>279</v>
-      </c>
-      <c r="D109" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="56" t="n">
-        <v>3</v>
-      </c>
-      <c r="F109" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="56" t="n">
-        <v>14</v>
-      </c>
-      <c r="C110" t="s">
-        <v>281</v>
-      </c>
-      <c r="D110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="56" t="n">
-        <v>15</v>
-      </c>
-      <c r="C111" t="s">
-        <v>283</v>
-      </c>
-      <c r="D111" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="56" t="n">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>109</v>
-      </c>
-      <c r="D112" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="56" t="n">
-        <v>17</v>
-      </c>
-      <c r="C113" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="56" t="n">
-        <v>18</v>
-      </c>
-      <c r="C114" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>96</v>
-      </c>
-      <c r="B115" s="56" t="n">
-        <v>19</v>
-      </c>
-      <c r="C115" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>96</v>
-      </c>
-      <c r="B116" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="s">
-        <v>98</v>
-      </c>
-      <c r="E116" s="56" t="n">
-        <v>32</v>
-      </c>
-      <c r="F116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>96</v>
-      </c>
-      <c r="B117" s="56" t="n">
-        <v>21</v>
-      </c>
-      <c r="C117" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="56" t="n">
-        <v>22</v>
-      </c>
-      <c r="C118" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" t="s">
-        <v>98</v>
-      </c>
-      <c r="E118" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="56" t="n">
-        <v>23</v>
-      </c>
-      <c r="C119" t="s">
-        <v>287</v>
-      </c>
-      <c r="D119" t="s">
-        <v>98</v>
-      </c>
-      <c r="E119" s="56" t="n">
-        <v>22</v>
-      </c>
-      <c r="F119" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>96</v>
-      </c>
-      <c r="B120" s="56" t="n">
-        <v>24</v>
-      </c>
-      <c r="C120" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" t="s">
-        <v>98</v>
-      </c>
-      <c r="E120" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>96</v>
-      </c>
-      <c r="B121" s="56" t="n">
-        <v>25</v>
-      </c>
-      <c r="C121" t="s">
-        <v>216</v>
-      </c>
-      <c r="D121" t="s">
-        <v>98</v>
-      </c>
-      <c r="E121" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="56" t="n">
-        <v>26</v>
-      </c>
-      <c r="C122" t="s">
-        <v>218</v>
-      </c>
-      <c r="D122" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="56" t="n">
-        <v>27</v>
-      </c>
-      <c r="C123" t="s">
-        <v>289</v>
-      </c>
-      <c r="D123" t="s">
-        <v>98</v>
-      </c>
-      <c r="E123" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" s="56" t="n">
-        <v>28</v>
-      </c>
-      <c r="C124" t="s">
-        <v>291</v>
-      </c>
-      <c r="D124" t="s">
-        <v>98</v>
-      </c>
-      <c r="E124" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="56" t="n">
-        <v>29</v>
-      </c>
-      <c r="C125" t="s">
-        <v>220</v>
-      </c>
-      <c r="D125" t="s">
-        <v>98</v>
-      </c>
-      <c r="E125" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>96</v>
-      </c>
-      <c r="B126" s="56" t="n">
-        <v>30</v>
-      </c>
-      <c r="C126" t="s">
-        <v>293</v>
-      </c>
-      <c r="D126" t="s">
-        <v>98</v>
-      </c>
-      <c r="E126" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>96</v>
-      </c>
-      <c r="B127" s="56" t="n">
-        <v>31</v>
-      </c>
-      <c r="C127" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" t="s">
-        <v>98</v>
-      </c>
-      <c r="E127" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>96</v>
-      </c>
-      <c r="B128" s="56" t="n">
-        <v>32</v>
-      </c>
-      <c r="C128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D128" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>96</v>
-      </c>
-      <c r="B129" s="56" t="n">
-        <v>33</v>
-      </c>
-      <c r="C129" t="s">
-        <v>299</v>
-      </c>
-      <c r="D129" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>96</v>
-      </c>
-      <c r="B130" s="56" t="n">
-        <v>34</v>
-      </c>
-      <c r="C130" t="s">
-        <v>301</v>
-      </c>
-      <c r="D130" t="s">
-        <v>98</v>
-      </c>
-      <c r="E130" s="56" t="n">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>96</v>
-      </c>
-      <c r="B131" s="56" t="n">
-        <v>35</v>
-      </c>
-      <c r="C131" t="s">
-        <v>303</v>
-      </c>
-      <c r="D131" t="s">
-        <v>107</v>
-      </c>
-      <c r="E131" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>96</v>
-      </c>
-      <c r="B132" s="56" t="n">
-        <v>36</v>
-      </c>
-      <c r="C132" t="s">
-        <v>305</v>
-      </c>
-      <c r="D132" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F132" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" s="56" t="n">
-        <v>37</v>
-      </c>
-      <c r="C133" t="s">
-        <v>307</v>
-      </c>
-      <c r="D133" t="s">
-        <v>107</v>
-      </c>
-      <c r="E133" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>96</v>
-      </c>
-      <c r="B134" s="56" t="n">
-        <v>38</v>
-      </c>
-      <c r="C134" t="s">
-        <v>309</v>
-      </c>
-      <c r="D134" t="s">
-        <v>124</v>
-      </c>
-      <c r="E134" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>96</v>
-      </c>
-      <c r="B135" s="56" t="n">
-        <v>39</v>
-      </c>
-      <c r="C135" t="s">
-        <v>311</v>
-      </c>
-      <c r="D135" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>96</v>
-      </c>
-      <c r="B136" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="C136" t="s">
-        <v>313</v>
-      </c>
-      <c r="D136" t="s">
-        <v>98</v>
-      </c>
-      <c r="E136" s="56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>96</v>
-      </c>
-      <c r="B137" s="56" t="n">
-        <v>41</v>
-      </c>
-      <c r="C137" t="s">
-        <v>315</v>
-      </c>
-      <c r="D137" t="s">
-        <v>124</v>
-      </c>
-      <c r="E137" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F137" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>96</v>
-      </c>
-      <c r="B138" s="56" t="n">
-        <v>42</v>
-      </c>
-      <c r="C138" t="s">
-        <v>317</v>
-      </c>
-      <c r="D138" t="s">
-        <v>98</v>
-      </c>
-      <c r="E138" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>96</v>
-      </c>
-      <c r="B139" s="56" t="n">
-        <v>43</v>
-      </c>
-      <c r="C139" t="s">
-        <v>319</v>
-      </c>
-      <c r="D139" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>96</v>
-      </c>
-      <c r="B140" s="56" t="n">
-        <v>44</v>
-      </c>
-      <c r="C140" t="s">
-        <v>321</v>
-      </c>
-      <c r="D140" t="s">
-        <v>107</v>
-      </c>
-      <c r="E140" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F140" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>96</v>
-      </c>
-      <c r="B141" s="56" t="n">
-        <v>45</v>
-      </c>
-      <c r="C141" t="s">
-        <v>323</v>
-      </c>
-      <c r="D141" t="s">
-        <v>124</v>
-      </c>
-      <c r="E141" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>96</v>
-      </c>
-      <c r="B142" s="56" t="n">
-        <v>46</v>
-      </c>
-      <c r="C142" t="s">
-        <v>325</v>
-      </c>
-      <c r="D142" t="s">
-        <v>98</v>
-      </c>
-      <c r="E142" s="56" t="n">
-        <v>27</v>
-      </c>
-      <c r="F142" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>96</v>
-      </c>
-      <c r="B143" s="56" t="n">
-        <v>47</v>
-      </c>
-      <c r="C143" t="s">
-        <v>327</v>
-      </c>
-      <c r="D143" t="s">
-        <v>98</v>
-      </c>
-      <c r="E143" s="56" t="n">
-        <v>18</v>
-      </c>
-      <c r="F143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>96</v>
-      </c>
-      <c r="B144" s="56" t="n">
-        <v>48</v>
-      </c>
-      <c r="C144" t="s">
-        <v>329</v>
-      </c>
-      <c r="D144" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F144" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="1048526">
       <c r="B1048526" s="17"/>
